--- a/biology/Zoologie/Argynne_cybèle/Argynne_cybèle.xlsx
+++ b/biology/Zoologie/Argynne_cybèle/Argynne_cybèle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Argynne_cyb%C3%A8le</t>
+          <t>Argynne_cybèle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Speyeria cybele
 L'Argynne cybèle (Speyeria cybele) est une espèce nord-américaine de lépidoptères de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Argynne_cyb%C3%A8le</t>
+          <t>Argynne_cybèle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,89 +524,93 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Speyeria cybele a été nommé par Johan Christian Fabricius en 1775.
-Synonymes : Papilio cybele Fabricius, 1775; Papilio daphnis Cramer, 1775[1].
-Noms vernaculaires
-L'Argyne cybèle se nomme Great Spangled Fritillary en anglais.
-Sous-espèces
-Speyeria cybele carpenterii (Edwards, 1876)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Speyeria cybele a été nommé par Johan Christian Fabricius en 1775.
+Synonymes : Papilio cybele Fabricius, 1775; Papilio daphnis Cramer, 1775.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Argynne_cybèle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argynne_cyb%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Argyne cybèle se nomme Great Spangled Fritillary en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Argynne_cybèle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argynne_cyb%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Speyeria cybele carpenterii (Edwards, 1876)
 Speyeria cybele charlottii (Barnes, 1897)
 Speyeria cybele leto (Behr, 1862)
 Speyeria cybele letona dos Passos et Grey, 1945
 Speyeria cybele krautwurmi (Holland, 1931)
 Speyeria cybele novascotiae (McDunnough, 1935)
 Speyeria cybele pseudocarpenteri (F. et R. Chermock, 1940)
-Speyeria cybele pugetensis Chermock et Frechin, 1947[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Argynne_cyb%C3%A8le</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argynne_cyb%C3%A8le</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille, de couleur noire est ornée d'épines noires à base rouge[2]. La chrysalide est brune tachetée.
-Au stade adulte, l'Argynne cybèle est un grand papillon de couleur jaune orange brillant ornementé de marron. Son envergure varie de 63 à 101 mm. La face supérieure des ailes est marron près du corps, et orange vers l'extérieur. Des taches noires en forme de croissant, de rond et de damier les ornent.
-La face intérieure des ailes antérieures est plus claire avec une ornementation semblable. Celle des postérieures est ornée de taches ovales blanc argenté, et d'une ligne submarginale de taches en demi-cercle blanc nacré[3],[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Argynne_cyb%C3%A8le</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argynne_cyb%C3%A8le</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Argyne cybèle vole en une génération de mi-juin à septembre[4].
-Il hiverne au stade de jeune chenille[3].
-Plantes hôtes
-Le chenille se nourrit de feuilles de violettes, dont Viola rotundifolia[1]. L'adulte se nourrit du nectar de différentes fleurs, dont les chardons du genre Cirsium.
-</t>
+Speyeria cybele pugetensis Chermock et Frechin, 1947.</t>
         </is>
       </c>
     </row>
@@ -604,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Argynne_cyb%C3%A8le</t>
+          <t>Argynne_cybèle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,17 +635,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Argyne cybèle est présent en Amérique du Nord, dans tout le Canada au sud de la limite boréale, de la Colombie-Britannique à la Nouvelle-Écosse et la majorité des états des USA, la limite sud étant le centre de la Californie, l'Utah,
-le Colorado, le Kansas, l'Oklahoma, l'Arkansas, le Mississippi, l'Alabama, le nord de la Géorgie et la Caroline du Nord[1],[2],[3].
-Biotope
-Cette espèce préfère les lieux relativement humides, comme les prairies, les forêts clairsemées, les vallées et le bord des routes[3].
-Protection
-Pas de statut de protection particulier aux USA[3]. La sous-espèce Speyeria cybele pseudocarpenteri est considérée comme menacée au Canada[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, de couleur noire est ornée d'épines noires à base rouge. La chrysalide est brune tachetée.
+Au stade adulte, l'Argynne cybèle est un grand papillon de couleur jaune orange brillant ornementé de marron. Son envergure varie de 63 à 101 mm. La face supérieure des ailes est marron près du corps, et orange vers l'extérieur. Des taches noires en forme de croissant, de rond et de damier les ornent.
+La face intérieure des ailes antérieures est plus claire avec une ornementation semblable. Celle des postérieures est ornée de taches ovales blanc argenté, et d'une ligne submarginale de taches en demi-cercle blanc nacré,.
 </t>
         </is>
       </c>
@@ -640,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Argynne_cyb%C3%A8le</t>
+          <t>Argynne_cybèle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,10 +670,195 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Argyne cybèle vole en une génération de mi-juin à septembre.
+Il hiverne au stade de jeune chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argynne_cybèle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argynne_cyb%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chenille se nourrit de feuilles de violettes, dont Viola rotundifolia. L'adulte se nourrit du nectar de différentes fleurs, dont les chardons du genre Cirsium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Argynne_cybèle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argynne_cyb%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Argyne cybèle est présent en Amérique du Nord, dans tout le Canada au sud de la limite boréale, de la Colombie-Britannique à la Nouvelle-Écosse et la majorité des états des USA, la limite sud étant le centre de la Californie, l'Utah,
+le Colorado, le Kansas, l'Oklahoma, l'Arkansas, le Mississippi, l'Alabama, le nord de la Géorgie et la Caroline du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Argynne_cybèle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argynne_cyb%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce préfère les lieux relativement humides, comme les prairies, les forêts clairsemées, les vallées et le bord des routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Argynne_cybèle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argynne_cyb%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier aux USA. La sous-espèce Speyeria cybele pseudocarpenteri est considérée comme menacée au Canada.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Argynne_cybèle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argynne_cyb%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Musique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Un morceau du groupe Cocteau Twins de 1985 porte le nom anglais de cette espèce, Great Spangled Fritillary, présent sur le EP Echoes in a Shallow Bay.
 </t>
